--- a/LIACSserver/dashboard/excelfiles/professors_end.xlsx
+++ b/LIACSserver/dashboard/excelfiles/professors_end.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,25 +458,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t xml:space="preserve"> 29</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1575</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>01.</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,17 +484,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>01.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -502,7 +502,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,15 +566,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -584,15 +584,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -602,15 +602,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -620,15 +620,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -656,15 +656,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -674,15 +674,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -692,7 +692,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -710,7 +710,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -746,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -800,15 +800,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -818,15 +818,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -836,15 +836,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -854,15 +854,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -872,7 +872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -908,15 +908,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -926,15 +926,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -944,15 +944,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -962,15 +962,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -980,15 +980,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -998,7 +998,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1016,15 +1016,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1052,15 +1052,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1070,15 +1070,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1088,7 +1088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1106,7 +1106,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1124,7 +1124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1142,15 +1142,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1160,15 +1160,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1178,15 +1178,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1196,15 +1196,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1214,7 +1214,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1250,7 +1250,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1268,7 +1268,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1286,7 +1286,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1304,7 +1304,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1322,15 +1322,15 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1340,15 +1340,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1358,7 +1358,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1376,7 +1376,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1394,7 +1394,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1412,15 +1412,15 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1448,7 +1448,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1466,7 +1466,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1484,15 +1484,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1502,15 +1502,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1520,15 +1520,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1538,7 +1538,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1556,15 +1556,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1574,7 +1574,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1592,15 +1592,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1610,15 +1610,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1628,15 +1628,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1646,15 +1646,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1664,15 +1664,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1682,7 +1682,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1700,7 +1700,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1718,7 +1718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1736,15 +1736,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1754,15 +1754,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1772,15 +1772,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1790,7 +1790,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1808,15 +1808,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1826,7 +1826,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1852,17 +1852,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1870,71 +1870,71 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1942,17 +1942,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1960,43 +1960,43 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2006,15 +2006,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2024,7 +2024,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2042,7 +2042,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2060,15 +2060,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2078,7 +2078,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2096,15 +2096,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2114,7 +2114,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2132,15 +2132,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2150,7 +2150,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2168,15 +2168,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2186,15 +2186,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2204,7 +2204,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2222,15 +2222,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2240,15 +2240,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2258,7 +2258,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2276,7 +2276,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2294,7 +2294,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2312,7 +2312,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2330,7 +2330,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2348,15 +2348,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2366,15 +2366,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2384,15 +2384,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2402,15 +2402,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2420,7 +2420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2438,7 +2438,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2456,7 +2456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2474,7 +2474,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2510,15 +2510,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2528,15 +2528,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2546,15 +2546,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2564,15 +2564,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2582,7 +2582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2600,15 +2600,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2618,7 +2618,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2636,7 +2636,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2654,7 +2654,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2672,7 +2672,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2690,15 +2690,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2708,15 +2708,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2726,7 +2726,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2744,15 +2744,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2762,97 +2762,97 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2860,35 +2860,35 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2896,97 +2896,97 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2996,15 +2996,15 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3014,7 +3014,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3032,15 +3032,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3050,7 +3050,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3068,15 +3068,15 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3086,15 +3086,15 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1849</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1849</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3104,15 +3104,15 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3122,15 +3122,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3140,15 +3140,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3158,7 +3158,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3176,15 +3176,15 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3194,7 +3194,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3212,7 +3212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3230,7 +3230,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3248,15 +3248,15 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3266,7 +3266,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3284,15 +3284,15 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3302,7 +3302,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3320,7 +3320,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3338,7 +3338,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3356,15 +3356,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3374,15 +3374,15 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3392,15 +3392,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3410,15 +3410,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3428,7 +3428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3446,7 +3446,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3464,7 +3464,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3482,7 +3482,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3500,15 +3500,15 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3518,15 +3518,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3536,7 +3536,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3554,15 +3554,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3572,15 +3572,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3590,15 +3590,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3608,15 +3608,15 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3626,15 +3626,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3644,15 +3644,15 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3662,7 +3662,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3680,15 +3680,15 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3698,15 +3698,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3716,15 +3716,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3734,15 +3734,15 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3752,7 +3752,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3770,151 +3770,151 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -3922,35 +3922,35 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -3958,17 +3958,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3976,53 +3976,53 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4030,35 +4030,35 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -4066,71 +4066,71 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -4138,61 +4138,61 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4202,15 +4202,15 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4220,15 +4220,15 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4238,15 +4238,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4256,7 +4256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4274,15 +4274,15 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4292,15 +4292,15 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4310,15 +4310,15 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4346,15 +4346,15 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4364,15 +4364,15 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4382,7 +4382,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4400,15 +4400,15 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4418,15 +4418,15 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4436,15 +4436,15 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4454,7 +4454,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4472,15 +4472,15 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4490,15 +4490,15 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4508,15 +4508,15 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4526,15 +4526,15 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4544,7 +4544,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4562,15 +4562,15 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4580,15 +4580,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -4598,15 +4598,15 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4616,15 +4616,15 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4634,15 +4634,15 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4652,15 +4652,15 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4670,15 +4670,15 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -4688,15 +4688,15 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4706,15 +4706,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4724,15 +4724,15 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4742,15 +4742,15 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4760,15 +4760,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -4778,15 +4778,15 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4796,15 +4796,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4814,15 +4814,15 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4832,15 +4832,15 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4850,15 +4850,15 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -4868,15 +4868,15 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4886,15 +4886,15 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4904,15 +4904,15 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4922,15 +4922,15 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4940,15 +4940,15 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -4958,15 +4958,15 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4976,15 +4976,15 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4994,15 +4994,15 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -5012,15 +5012,15 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5030,15 +5030,15 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -5048,15 +5048,15 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5066,15 +5066,15 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5084,15 +5084,15 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -5102,15 +5102,15 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -5120,15 +5120,15 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5138,15 +5138,15 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5156,15 +5156,15 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5174,15 +5174,15 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5192,15 +5192,15 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -5210,15 +5210,15 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5228,15 +5228,15 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5246,15 +5246,15 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5264,15 +5264,15 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5282,15 +5282,15 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -5300,15 +5300,15 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -5318,15 +5318,15 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5336,15 +5336,15 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5354,15 +5354,15 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -5372,15 +5372,15 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -5390,15 +5390,15 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5408,15 +5408,15 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -5426,15 +5426,15 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -5444,15 +5444,15 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5462,15 +5462,15 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -5480,15 +5480,15 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -5498,15 +5498,15 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -5516,15 +5516,15 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -5534,205 +5534,205 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B288" t="n">
+        <v>6</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
         <v>21</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -5740,461 +5740,173 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>31.</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>31.</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>5</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>1</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>4</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>5</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>4</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>4</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>3</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>2</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>2</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>3</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>2</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
